--- a/loader/src/test/resources/template3.xlsx
+++ b/loader/src/test/resources/template3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugionakazawa/github/tsurugi-batch-template/loader/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6E47B0-7F7D-1F45-94A2-B7D8A027D6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9394AEAE-E446-4947-8B87-C5C7F4255426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15860" yWindow="-20880" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15860" yWindow="-20880" windowWidth="25280" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_table3" sheetId="37" r:id="rId1"/>
@@ -102,7 +102,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ab</t>
+    <t>src/test/resources/blob001.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -492,7 +492,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
